--- a/ResultadoEleicoesDistritos/AVEIRO_ÍLHAVO.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_ÍLHAVO.xlsx
@@ -597,64 +597,64 @@
         <v>10874</v>
       </c>
       <c r="H2" t="n">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="I2" t="n">
-        <v>1037</v>
+        <v>1066</v>
       </c>
       <c r="J2" t="n">
-        <v>4445</v>
+        <v>4484</v>
       </c>
       <c r="K2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" t="n">
-        <v>1185</v>
+        <v>1232</v>
       </c>
       <c r="M2" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="N2" t="n">
-        <v>775</v>
+        <v>716</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R2" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S2" t="n">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="T2" t="n">
-        <v>768</v>
+        <v>788</v>
       </c>
       <c r="U2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V2" t="n">
-        <v>7098</v>
+        <v>6969</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>6962</v>
+        <v>7066</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="AA2" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
